--- a/Ch1_Degradation_figures/nmds2_pval.1.xlsx
+++ b/Ch1_Degradation_figures/nmds2_pval.1.xlsx
@@ -1,26 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/work/Library/CloudStorage/Dropbox/GRADSCHOOL/Dissertation/R_dissertation/chaparraldegradation_2022b/Ch1_Degradation_figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8D52CDE1-4336-8B4C-A323-251EFF37E3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947B8C65-5717-7842-B8C3-CF6F61159DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="14900"/>
+    <workbookView xWindow="39000" yWindow="-10300" windowWidth="27240" windowHeight="23200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nmds2_pval.1" sheetId="1" r:id="rId1"/>
+    <sheet name="sppr" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="44" r:id="rId3"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="211">
   <si>
     <t>species</t>
   </si>
@@ -407,14 +424,260 @@
   </si>
   <si>
     <t>non-native species</t>
+  </si>
+  <si>
+    <t>Acmispon glaber</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>Acmispon maritimus</t>
+  </si>
+  <si>
+    <t>Acmispon strigosus</t>
+  </si>
+  <si>
+    <t>Apiastrum angustifolium</t>
+  </si>
+  <si>
+    <t>Artemisia californica</t>
+  </si>
+  <si>
+    <t>dn</t>
+  </si>
+  <si>
+    <t>Asclepias fascicularis</t>
+  </si>
+  <si>
+    <t>Astragalus trichopodus</t>
+  </si>
+  <si>
+    <t>Avena barbara</t>
+  </si>
+  <si>
+    <t>Avena barbata</t>
+  </si>
+  <si>
+    <t>Baccharis pilularis</t>
+  </si>
+  <si>
+    <t>Bromus diandrus</t>
+  </si>
+  <si>
+    <t>Bromus hordeaceus</t>
+  </si>
+  <si>
+    <t>Bromus madritensis</t>
+  </si>
+  <si>
+    <t>Calochortus clavatus</t>
+  </si>
+  <si>
+    <t>Carduus pycnocephalus</t>
+  </si>
+  <si>
+    <t>Ceanothus oliganthus</t>
+  </si>
+  <si>
+    <t>Cenothus oliganthus</t>
+  </si>
+  <si>
+    <t>Centaurea melitensis</t>
+  </si>
+  <si>
+    <t>Claytonia parviflora</t>
+  </si>
+  <si>
+    <t>Claytonia perfoliata</t>
+  </si>
+  <si>
+    <t>Croton setiger</t>
+  </si>
+  <si>
+    <t>Cryptantha spp.</t>
+  </si>
+  <si>
+    <t>Diplacus aurantiacus</t>
+  </si>
+  <si>
+    <t>Dipterostemon capitatus</t>
+  </si>
+  <si>
+    <t>Elymus condensatus</t>
+  </si>
+  <si>
+    <t>Emmenanthe penduliflora</t>
+  </si>
+  <si>
+    <t>Erigeron canadensis</t>
+  </si>
+  <si>
+    <t>Eriodictyon crassifolium</t>
+  </si>
+  <si>
+    <t>Eriogonum fasciculatum</t>
+  </si>
+  <si>
+    <t>Erodium cicutarium</t>
+  </si>
+  <si>
+    <t>Erodium spp.</t>
+  </si>
+  <si>
+    <t>Eucrypta chrysanthemifolia</t>
+  </si>
+  <si>
+    <t>Festuca myuros</t>
+  </si>
+  <si>
+    <t>Fragaria vesca</t>
+  </si>
+  <si>
+    <t>Galium porrigens</t>
+  </si>
+  <si>
+    <t>Heteromeles arbutifolia</t>
+  </si>
+  <si>
+    <t>Hirschfeldia incana</t>
+  </si>
+  <si>
+    <t>Juncus bufonius</t>
+  </si>
+  <si>
+    <t>Lactuca serriola</t>
+  </si>
+  <si>
+    <t>Laennecia coulteri</t>
+  </si>
+  <si>
+    <t>Logfia filaginoides</t>
+  </si>
+  <si>
+    <t>Lupinus spp.</t>
+  </si>
+  <si>
+    <t>Madia gracilis</t>
+  </si>
+  <si>
+    <t>Malacothamnus fasciculatus</t>
+  </si>
+  <si>
+    <t>Malacothrix saxatilis</t>
+  </si>
+  <si>
+    <t>Marah macrocarpa</t>
+  </si>
+  <si>
+    <t>Melica imperfecta</t>
+  </si>
+  <si>
+    <t>Nicotiana glauca</t>
+  </si>
+  <si>
+    <t>Oxalis corniculata</t>
+  </si>
+  <si>
+    <t>Pellaea andromedifolia</t>
+  </si>
+  <si>
+    <t>Phacelia tanacetifolia</t>
+  </si>
+  <si>
+    <t>Phacelia viscida</t>
+  </si>
+  <si>
+    <t>Polypogon monspeliensis</t>
+  </si>
+  <si>
+    <t>Pseudognaphalium californicum</t>
+  </si>
+  <si>
+    <t>Pseudognaphalium luteoalbum</t>
+  </si>
+  <si>
+    <t>Rhamnus ilicifolia</t>
+  </si>
+  <si>
+    <t>Rhus ovata</t>
+  </si>
+  <si>
+    <t>Ribes spp.</t>
+  </si>
+  <si>
+    <t>Salvia apiana</t>
+  </si>
+  <si>
+    <t>Salvia leucophylla</t>
+  </si>
+  <si>
+    <t>Sambucus mexicana</t>
+  </si>
+  <si>
+    <t>Solanum xanti</t>
+  </si>
+  <si>
+    <t>Sonchus oleraceus</t>
+  </si>
+  <si>
+    <t>Stephanomeria virgata</t>
+  </si>
+  <si>
+    <t>Stipa lepida</t>
+  </si>
+  <si>
+    <t>Thysanocarpus spp.</t>
+  </si>
+  <si>
+    <t>Trifolium gracelentum</t>
+  </si>
+  <si>
+    <t>Trifolium willdenovii</t>
+  </si>
+  <si>
+    <t>Typha domingensis</t>
+  </si>
+  <si>
+    <t>Unknown A - shrub</t>
+  </si>
+  <si>
+    <t>Unknown C - bright green seedling, small leaves</t>
+  </si>
+  <si>
+    <t>Unknown D - brown dicot</t>
+  </si>
+  <si>
+    <t>Unknown E - plastic plant</t>
+  </si>
+  <si>
+    <t>Unknown G - fuzzy leaf dicot</t>
+  </si>
+  <si>
+    <t>unknown5 shrub</t>
+  </si>
+  <si>
+    <t>Uropappus lindleyi</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -912,15 +1175,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -977,6 +1243,849 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Stephanie Ma Lucero" refreshedDate="45340.547125578705" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="123" xr:uid="{73361C5C-D418-9E41-A2D8-1FB1F745623C}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B2:B1048576" sheet="sppr"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="Acmispon glaber" numFmtId="0">
+      <sharedItems containsBlank="1" count="93">
+        <s v="Acmispon glaber"/>
+        <s v="Acmispon maritimus"/>
+        <s v="Acmispon strigosus"/>
+        <s v="Apiastrum angustifolium"/>
+        <s v="Artemisia californica"/>
+        <s v="Asclepias fascicularis"/>
+        <s v="Astragalus trichopodus"/>
+        <s v="Avena barbara"/>
+        <m/>
+        <s v="Avena barbata"/>
+        <s v="Baccharis pilularis"/>
+        <s v="Bromus diandrus"/>
+        <s v="Bromus hordeaceus"/>
+        <s v="Bromus madritensis"/>
+        <s v="Calochortus clavatus"/>
+        <s v="Carduus pycnocephalus"/>
+        <s v="Ceanothus oliganthus"/>
+        <s v="Cenothus oliganthus"/>
+        <s v="Centaurea melitensis"/>
+        <s v="Claytonia parviflora"/>
+        <s v="Claytonia perfoliata"/>
+        <s v="Croton setiger"/>
+        <s v="Cryptantha spp."/>
+        <s v="Diplacus aurantiacus"/>
+        <s v="Dipterostemon capitatus"/>
+        <s v="Elymus condensatus"/>
+        <s v="Emmenanthe penduliflora"/>
+        <s v="Erigeron canadensis"/>
+        <s v="Eriodictyon crassifolium"/>
+        <s v="Eriogonum fasciculatum"/>
+        <s v="Erodium cicutarium"/>
+        <s v="Erodium spp."/>
+        <s v="Eucrypta chrysanthemifolia"/>
+        <s v="Festuca myuros"/>
+        <s v="Fragaria vesca"/>
+        <s v="Galium porrigens"/>
+        <s v="Heteromeles arbutifolia"/>
+        <s v="Hirschfeldia incana"/>
+        <s v="Juncus bufonius"/>
+        <s v="Lactuca serriola"/>
+        <s v="Laennecia coulteri"/>
+        <s v="Logfia filaginoides"/>
+        <s v="Lupinus spp."/>
+        <s v="Madia gracilis"/>
+        <s v="Malacothamnus fasciculatus"/>
+        <s v="Malacothrix saxatilis"/>
+        <s v="Marah macrocarpa"/>
+        <s v="Melica imperfecta"/>
+        <s v="Nicotiana glauca"/>
+        <s v="Oxalis corniculata"/>
+        <s v="Pellaea andromedifolia"/>
+        <s v="Phacelia tanacetifolia"/>
+        <s v="Phacelia viscida"/>
+        <s v="Polypogon monspeliensis"/>
+        <s v="Pseudognaphalium californicum"/>
+        <s v="Pseudognaphalium luteoalbum"/>
+        <s v="Rhamnus ilicifolia"/>
+        <s v="Rhus ovata"/>
+        <s v="Ribes spp."/>
+        <s v="Salvia apiana"/>
+        <s v="Salvia leucophylla"/>
+        <s v="Sambucus mexicana"/>
+        <s v="Solanum xanti"/>
+        <s v="Sonchus oleraceus"/>
+        <s v="Stephanomeria virgata"/>
+        <s v="Stipa lepida"/>
+        <s v="Thysanocarpus spp."/>
+        <s v="Trifolium gracelentum"/>
+        <s v="Trifolium willdenovii"/>
+        <s v="Typha domingensis"/>
+        <s v="Unknown A - shrub"/>
+        <s v="Unknown C - bright green seedling, small leaves"/>
+        <s v="Unknown D - brown dicot"/>
+        <s v="Unknown E - plastic plant"/>
+        <s v="Unknown G - fuzzy leaf dicot"/>
+        <s v="unknown5 shrub"/>
+        <s v="Uropappus lindleyi"/>
+        <s v="Avena barbata dead" u="1"/>
+        <s v="Bromus diandrus dead" u="1"/>
+        <s v="Bromus rubens dead" u="1"/>
+        <s v="Bromus rubens" u="1"/>
+        <s v="Bromus spp. dead" u="1"/>
+        <s v="Bromus spp." u="1"/>
+        <s v="Centaurea melitensis dead" u="1"/>
+        <s v="Elymus condensatus dead" u="1"/>
+        <s v="Erodium moschatum" u="1"/>
+        <s v="Heteromeles arbutifolia dead" u="1"/>
+        <s v="Hirschfeldia incana dead" u="1"/>
+        <s v="Lupinus bicolor" u="1"/>
+        <s v="Malacothamnus fasciculatus dead" u="1"/>
+        <s v="Phacelia spp." u="1"/>
+        <s v="Salvia leucophylla dead" u="1"/>
+        <s v="Stipa lepida dead" u="1"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="123">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="62"/>
+  </r>
+  <r>
+    <x v="62"/>
+  </r>
+  <r>
+    <x v="63"/>
+  </r>
+  <r>
+    <x v="64"/>
+  </r>
+  <r>
+    <x v="64"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="65"/>
+  </r>
+  <r>
+    <x v="65"/>
+  </r>
+  <r>
+    <x v="66"/>
+  </r>
+  <r>
+    <x v="67"/>
+  </r>
+  <r>
+    <x v="68"/>
+  </r>
+  <r>
+    <x v="69"/>
+  </r>
+  <r>
+    <x v="70"/>
+  </r>
+  <r>
+    <x v="71"/>
+  </r>
+  <r>
+    <x v="72"/>
+  </r>
+  <r>
+    <x v="73"/>
+  </r>
+  <r>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="76"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7F854886-7A87-DF46-8622-014FEDBE2EE0}" name="PivotTable6" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M3:M81" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="94">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item m="1" x="77"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item m="1" x="78"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item m="1" x="80"/>
+        <item m="1" x="79"/>
+        <item m="1" x="82"/>
+        <item m="1" x="81"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item m="1" x="83"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item m="1" x="84"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item m="1" x="85"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item m="1" x="86"/>
+        <item x="37"/>
+        <item m="1" x="87"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item m="1" x="88"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item m="1" x="89"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item m="1" x="90"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item m="1" x="91"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item m="1" x="92"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="78">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1295,11 +2404,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A94" sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1325,11 +2434,6 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -1347,17 +2451,17 @@
       <c r="E2" s="3">
         <v>1E-3</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -1375,8 +2479,8 @@
       <c r="E3" s="3">
         <v>1E-3</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="G3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -1394,17 +2498,17 @@
       <c r="E4" s="3">
         <v>2E-3</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1422,13 +2526,13 @@
       <c r="E5" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -1446,10 +2550,10 @@
       <c r="E6" s="3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -1467,8 +2571,8 @@
       <c r="E7" s="3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1486,10 +2590,10 @@
       <c r="E8" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="6"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1507,8 +2611,8 @@
       <c r="E9" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1526,17 +2630,17 @@
       <c r="E10" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="K10" s="6"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -1554,17 +2658,17 @@
       <c r="E11" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="K11" s="6"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -1582,16 +2686,16 @@
       <c r="E12" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="K12" s="6"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1609,15 +2713,15 @@
       <c r="E13" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6" t="s">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="6"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -1635,13 +2739,13 @@
       <c r="E14" s="3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="6"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -1659,11 +2763,11 @@
       <c r="E15" s="3">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6" t="s">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="K15" s="6"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -1681,12 +2785,12 @@
       <c r="E16" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6" t="s">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="K16" s="6"/>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -1704,12 +2808,12 @@
       <c r="E17" s="3">
         <v>2.3E-2</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -1727,10 +2831,10 @@
       <c r="E18" s="3">
         <v>2.3E-2</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -1748,10 +2852,10 @@
       <c r="E19" s="3">
         <v>2.3E-2</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -1769,10 +2873,10 @@
       <c r="E20" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -1790,10 +2894,10 @@
       <c r="E21" s="3">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="G21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -1811,10 +2915,10 @@
       <c r="E22" s="3">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="G22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -1832,10 +2936,10 @@
       <c r="E23" s="3">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="G23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -1853,10 +2957,10 @@
       <c r="E24" s="3">
         <v>4.7E-2</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
@@ -1874,8 +2978,8 @@
       <c r="E25" s="1">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="H25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="H25" s="5"/>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -1893,11 +2997,11 @@
       <c r="E26" s="1">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -1915,11 +3019,11 @@
       <c r="E27" s="1">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -1937,11 +3041,11 @@
       <c r="E28" s="1">
         <v>0.06</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -1959,11 +3063,6 @@
       <c r="E29" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -3570,4 +4669,2973 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A54AA5-1E09-D14B-84F8-1DA849398ABC}">
+  <dimension ref="A1:N123"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="39.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-4.6069536759514702E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.64398311227854699</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.26287228242842697</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.90335104634034102</v>
+      </c>
+      <c r="I3" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-0.40156162811722002</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-0.50542954595834599</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-0.50428474595275896</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.54697722537536397</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N5">
+        <f>N4+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-4.6069536759514702E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.64398311227854699</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.128</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N69" si="0">N5+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.34274359857686998</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-0.32365729642380803</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.66348003675454104</v>
+      </c>
+      <c r="H8" s="3">
+        <v>-0.626102752202365</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.11884259336103099</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-0.162442114558838</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-0.35355839988766702</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.79919093355992099</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.85038317515163497</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.17943123583463799</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2.4E-2</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-4.6055037417212001E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.64372009736509805</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.83882433194279704</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-0.20245738414474901</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-4.6069536759514702E-2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.64398311227854699</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.128</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-0.10009491396282701</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.60866239285016999</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.112</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="3">
+        <v>-0.87552760199323498</v>
+      </c>
+      <c r="H16" s="3">
+        <v>-0.431366355729633</v>
+      </c>
+      <c r="I16" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-4.6055037417212098E-2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.64372009736509805</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-0.39844907516862499</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.37569941913807398</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-0.20598230316766</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.53352688227286804</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-4.9921604563150701E-2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.57599741425634898</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.377616520392901</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.37172437355457599</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="1">
+        <v>9.8634864351770397E-3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.59240496778553997</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="1">
+        <v>-7.0780630572789605E-2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.98935581398767103</v>
+      </c>
+      <c r="I23" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-2.5477810524890201E-2</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.98302413028679003</v>
+      </c>
+      <c r="I24" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-0.42093417444072401</v>
+      </c>
+      <c r="H25" s="1">
+        <v>-0.46901136341861399</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="1">
+        <v>-0.79882019415718997</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.20459905325043301</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" s="1">
+        <v>5.8452061542761002E-2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.52794881012747696</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="1">
+        <v>-4.6069536759514702E-2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.64398311227854699</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.128</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="1">
+        <v>-4.6055037417212098E-2</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.64372009736509805</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" s="3">
+        <v>-6.9443696426429002E-2</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.97068246636669497</v>
+      </c>
+      <c r="I30" s="3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.34292254858412802</v>
+      </c>
+      <c r="H31" s="1">
+        <v>-0.32362460700401702</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.34274359857686998</v>
+      </c>
+      <c r="H32" s="1">
+        <v>-0.32365729642380803</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.34274359857686998</v>
+      </c>
+      <c r="H33" s="1">
+        <v>-0.32365729642380803</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" t="s">
+        <v>136</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" s="1">
+        <v>-7.03597237436481E-2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.983470874509358</v>
+      </c>
+      <c r="I35" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" s="1">
+        <v>-4.80255582215715E-2</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.671264692585685</v>
+      </c>
+      <c r="I36" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" t="s">
+        <v>131</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2.3599884305832899E-2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.90768972920787605</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.52783609657654695</v>
+      </c>
+      <c r="H38" s="1">
+        <v>-0.49778436698295198</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.185</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" s="1">
+        <v>-4.6055037417212098E-2</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.64372009736509805</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.71123685894132704</v>
+      </c>
+      <c r="H40" s="3">
+        <v>-0.67108324437080202</v>
+      </c>
+      <c r="I40" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41" s="1">
+        <v>-0.40156162811722002</v>
+      </c>
+      <c r="H41" s="1">
+        <v>-0.50542954595834599</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.32561679703847901</v>
+      </c>
+      <c r="H42" s="1">
+        <v>-0.33137395856212998</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" t="s">
+        <v>131</v>
+      </c>
+      <c r="G43" s="1">
+        <v>-4.6055037417212001E-2</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.64372009736509805</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" t="s">
+        <v>130</v>
+      </c>
+      <c r="G44" s="1">
+        <v>-0.10273495710322</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.56742620926040899</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45" s="1">
+        <v>-4.6069536759514702E-2</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.64398311227854699</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.128</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>130</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.15046959945733199</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.40066395781000302</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" s="1">
+        <v>-6.7900403788265895E-2</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.52431218333555796</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" t="s">
+        <v>131</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.57578198002966596</v>
+      </c>
+      <c r="H48" s="1">
+        <v>-8.8072273986374794E-2</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" t="s">
+        <v>131</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0.67718772944604999</v>
+      </c>
+      <c r="H49" s="3">
+        <v>-0.64886438386277701</v>
+      </c>
+      <c r="I49" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" t="s">
+        <v>130</v>
+      </c>
+      <c r="G50" s="1">
+        <v>-4.6055037417212098E-2</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.64372009736509805</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" t="s">
+        <v>136</v>
+      </c>
+      <c r="G51" s="1">
+        <v>-4.6055037417212001E-2</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.64372009736509805</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" t="s">
+        <v>131</v>
+      </c>
+      <c r="G52" s="1">
+        <v>-4.6055037417212098E-2</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.64372009736509805</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" t="s">
+        <v>136</v>
+      </c>
+      <c r="G53" s="1">
+        <v>-0.401629451882696</v>
+      </c>
+      <c r="H53" s="1">
+        <v>-0.50528836928894405</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0.437</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" t="s">
+        <v>130</v>
+      </c>
+      <c r="G54" s="3">
+        <v>-0.59902379660689298</v>
+      </c>
+      <c r="H54" s="3">
+        <v>-0.43485943100824598</v>
+      </c>
+      <c r="I54" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>131</v>
+      </c>
+      <c r="G55" s="1">
+        <v>-0.56625058244387505</v>
+      </c>
+      <c r="H55" s="1">
+        <v>-0.712618661667483</v>
+      </c>
+      <c r="I55" s="1">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>131</v>
+      </c>
+      <c r="G56" s="1">
+        <v>-0.51324545253604903</v>
+      </c>
+      <c r="H56" s="1">
+        <v>-0.64594055611728696</v>
+      </c>
+      <c r="I56" s="1">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" t="s">
+        <v>130</v>
+      </c>
+      <c r="G57" s="1">
+        <v>-0.40156162811722002</v>
+      </c>
+      <c r="H57" s="1">
+        <v>-0.50542954595834599</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" t="s">
+        <v>131</v>
+      </c>
+      <c r="G58" s="1">
+        <v>-6.3639902770673204E-2</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.88953096184910996</v>
+      </c>
+      <c r="I58" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" t="s">
+        <v>131</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0.71036413098846596</v>
+      </c>
+      <c r="H59" s="3">
+        <v>-0.68968779519704704</v>
+      </c>
+      <c r="I59" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" t="s">
+        <v>131</v>
+      </c>
+      <c r="G60" s="3">
+        <v>-3.8548619767157902E-4</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0.83824462124703303</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="M60" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" t="s">
+        <v>131</v>
+      </c>
+      <c r="G61" s="1">
+        <v>-0.401629451882696</v>
+      </c>
+      <c r="H61" s="1">
+        <v>-0.50528836928894505</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0.437</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62" t="s">
+        <v>130</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.57039272145561504</v>
+      </c>
+      <c r="H62" s="1">
+        <v>4.0456534113082303E-2</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="M62" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63" t="s">
+        <v>131</v>
+      </c>
+      <c r="G63" s="1">
+        <v>-0.40156162811722002</v>
+      </c>
+      <c r="H63" s="1">
+        <v>-0.50542954595834599</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>130</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.48562169783394998</v>
+      </c>
+      <c r="H64" s="1">
+        <v>-0.45821324705057698</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0.192</v>
+      </c>
+      <c r="M64" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" t="s">
+        <v>130</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.64346430863827997</v>
+      </c>
+      <c r="H65" s="1">
+        <v>-0.606986432563275</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0.112</v>
+      </c>
+      <c r="M65" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>167</v>
+      </c>
+      <c r="C66" t="s">
+        <v>136</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1</v>
+      </c>
+      <c r="M66" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s">
+        <v>130</v>
+      </c>
+      <c r="G67" s="3">
+        <v>-0.47132150601037198</v>
+      </c>
+      <c r="H67" s="3">
+        <v>-0.50737045594280406</v>
+      </c>
+      <c r="I67" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" t="s">
+        <v>130</v>
+      </c>
+      <c r="G68" s="3">
+        <v>-0.65660902825154799</v>
+      </c>
+      <c r="H68" s="3">
+        <v>-0.64383540613723</v>
+      </c>
+      <c r="I68" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M68" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" t="s">
+        <v>131</v>
+      </c>
+      <c r="G69" s="3">
+        <v>-0.51504434650267805</v>
+      </c>
+      <c r="H69" s="3">
+        <v>0.82669807307096299</v>
+      </c>
+      <c r="I69" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" t="s">
+        <v>131</v>
+      </c>
+      <c r="G70" s="1">
+        <v>-6.1411549668058403E-2</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.85838113478070899</v>
+      </c>
+      <c r="I70" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="M70" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="N70">
+        <f t="shared" ref="N70:N79" si="1">N69+1</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" t="s">
+        <v>131</v>
+      </c>
+      <c r="G71" s="1">
+        <v>-7.1359388308980795E-2</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0.99745061714516003</v>
+      </c>
+      <c r="I71" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>171</v>
+      </c>
+      <c r="C72" t="s">
+        <v>131</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.34274359857686998</v>
+      </c>
+      <c r="H72" s="1">
+        <v>-0.32365729642380803</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="M72" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" t="s">
+        <v>131</v>
+      </c>
+      <c r="G73" s="1">
+        <v>-7.0359723743648198E-2</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0.983470874509358</v>
+      </c>
+      <c r="I73" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>131</v>
+      </c>
+      <c r="G74" s="1">
+        <v>-4.6069536759514702E-2</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.64398311227854699</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0.128</v>
+      </c>
+      <c r="M74" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" t="s">
+        <v>130</v>
+      </c>
+      <c r="G75" s="3">
+        <v>-0.69358600623478694</v>
+      </c>
+      <c r="H75" s="3">
+        <v>-0.58341359365647205</v>
+      </c>
+      <c r="I75" s="3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>174</v>
+      </c>
+      <c r="C76" t="s">
+        <v>131</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.34296002506330697</v>
+      </c>
+      <c r="H76" s="1">
+        <v>-0.32324785051050098</v>
+      </c>
+      <c r="I76" s="1">
+        <v>1</v>
+      </c>
+      <c r="M76" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" t="s">
+        <v>130</v>
+      </c>
+      <c r="G77" s="3">
+        <v>-0.16580057352123501</v>
+      </c>
+      <c r="H77" s="3">
+        <v>0.94811707679665003</v>
+      </c>
+      <c r="I77" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="M77" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C78" t="s">
+        <v>130</v>
+      </c>
+      <c r="G78" s="3">
+        <v>-0.154148894888124</v>
+      </c>
+      <c r="H78" s="3">
+        <v>0.92370881655297399</v>
+      </c>
+      <c r="I78" s="3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="M78" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" t="s">
+        <v>136</v>
+      </c>
+      <c r="G79" s="3">
+        <v>-7.5493423896873996E-2</v>
+      </c>
+      <c r="H79" s="3">
+        <v>0.74151932199392401</v>
+      </c>
+      <c r="I79" s="3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="M79" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" t="s">
+        <v>131</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.176746828751697</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0.83567996828527202</v>
+      </c>
+      <c r="I80" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C81" t="s">
+        <v>131</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0.71633122531499804</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-0.67583565359616404</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" t="s">
+        <v>130</v>
+      </c>
+      <c r="G82" s="1">
+        <v>-4.6055037417212098E-2</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0.64372009736509805</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.34274359857686998</v>
+      </c>
+      <c r="H83" s="1">
+        <v>-0.32365729642380803</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0.84399999999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C84" t="s">
+        <v>131</v>
+      </c>
+      <c r="G84" s="3">
+        <v>0.69333383963177397</v>
+      </c>
+      <c r="H84" s="3">
+        <v>-0.69907517354003301</v>
+      </c>
+      <c r="I84" s="3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>180</v>
+      </c>
+      <c r="C85" t="s">
+        <v>131</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.50168228913980895</v>
+      </c>
+      <c r="H85" s="1">
+        <v>-0.47316418856605102</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>181</v>
+      </c>
+      <c r="C86" t="s">
+        <v>130</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.34292254858412802</v>
+      </c>
+      <c r="H86" s="1">
+        <v>-0.32362460700401702</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0.69899999999999995</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4"/>
+      <c r="C87" t="s">
+        <v>131</v>
+      </c>
+      <c r="G87" s="3">
+        <v>-6.63863035498891E-2</v>
+      </c>
+      <c r="H87" s="3">
+        <v>0.92795209336628004</v>
+      </c>
+      <c r="I87" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>182</v>
+      </c>
+      <c r="C88" t="s">
+        <v>131</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0.34274359857686998</v>
+      </c>
+      <c r="H88" s="1">
+        <v>-0.32365729642380803</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0.84399999999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>183</v>
+      </c>
+      <c r="C89" t="s">
+        <v>131</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0.512109375755604</v>
+      </c>
+      <c r="H89" s="1">
+        <v>-0.48340444809465599</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>184</v>
+      </c>
+      <c r="C90" t="s">
+        <v>131</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0.53066266540828799</v>
+      </c>
+      <c r="H90" s="1">
+        <v>-0.50049387812807</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C91" t="s">
+        <v>131</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0.71031042203888894</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-0.67019551609820704</v>
+      </c>
+      <c r="I91" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" t="s">
+        <v>130</v>
+      </c>
+      <c r="G92" s="1">
+        <v>-4.6055037417212098E-2</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0.64372009736509805</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" t="s">
+        <v>131</v>
+      </c>
+      <c r="G93" s="3">
+        <v>0.86110055989275502</v>
+      </c>
+      <c r="H93" s="3">
+        <v>-0.155138661806968</v>
+      </c>
+      <c r="I93" s="3">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>187</v>
+      </c>
+      <c r="C94" t="s">
+        <v>130</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0.34274359857686998</v>
+      </c>
+      <c r="H94" s="1">
+        <v>-0.32365729642380803</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0.84399999999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>187</v>
+      </c>
+      <c r="C95" t="s">
+        <v>136</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>188</v>
+      </c>
+      <c r="C96" t="s">
+        <v>130</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.46834756578485898</v>
+      </c>
+      <c r="H96" s="1">
+        <v>-9.1773055343867996E-2</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97" t="s">
+        <v>136</v>
+      </c>
+      <c r="G97" s="1">
+        <v>-4.6055037417212001E-2</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0.64372009736509805</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>189</v>
+      </c>
+      <c r="C98" t="s">
+        <v>131</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0.53128057438503395</v>
+      </c>
+      <c r="H98" s="1">
+        <v>-0.50106292151325704</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>190</v>
+      </c>
+      <c r="C99" t="s">
+        <v>136</v>
+      </c>
+      <c r="G99" s="1">
+        <v>-0.398370182550698</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0.37593776131343398</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>130</v>
+      </c>
+      <c r="G100" s="1">
+        <v>-4.7135512092020201E-2</v>
+      </c>
+      <c r="H100" s="1">
+        <v>-0.425742956063977</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0.49399999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>191</v>
+      </c>
+      <c r="C101" t="s">
+        <v>130</v>
+      </c>
+      <c r="G101" s="1">
+        <v>-0.39347178830499002</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0.371093733155275</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>191</v>
+      </c>
+      <c r="C102" t="s">
+        <v>136</v>
+      </c>
+      <c r="G102" s="1">
+        <v>-0.40607986056595702</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0.55976442470364196</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>191</v>
+      </c>
+      <c r="C103" t="s">
+        <v>131</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0.260847124996334</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0.70220968316948595</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>192</v>
+      </c>
+      <c r="C104" t="s">
+        <v>136</v>
+      </c>
+      <c r="G104" s="1">
+        <v>-4.6055037417212001E-2</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0.64372009736509805</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>193</v>
+      </c>
+      <c r="C105" t="s">
+        <v>130</v>
+      </c>
+      <c r="G105" s="1">
+        <v>-7.1359388308980795E-2</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0.99745061714516003</v>
+      </c>
+      <c r="I105" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>193</v>
+      </c>
+      <c r="C106" t="s">
+        <v>131</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0.37366798994759398</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0.34427197834124901</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0.57699999999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>194</v>
+      </c>
+      <c r="C107" t="s">
+        <v>131</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0.134663507850735</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0.62788888537360898</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>195</v>
+      </c>
+      <c r="C108" t="s">
+        <v>130</v>
+      </c>
+      <c r="G108" s="1">
+        <v>-4.6055037417212001E-2</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0.64372009736509805</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>195</v>
+      </c>
+      <c r="C109" t="s">
+        <v>131</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0.36022569515270902</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0.141545442225778</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="C110" t="s">
+        <v>130</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0.34292254858412802</v>
+      </c>
+      <c r="H110" s="1">
+        <v>-0.32362460700401702</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0.69899999999999995</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>196</v>
+      </c>
+      <c r="C111" t="s">
+        <v>130</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0.83081593024986</v>
+      </c>
+      <c r="H111" s="1">
+        <v>-0.315644130874219</v>
+      </c>
+      <c r="I111" s="1">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>196</v>
+      </c>
+      <c r="C112" t="s">
+        <v>131</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0.77616764606389699</v>
+      </c>
+      <c r="H112" s="1">
+        <v>-0.18933391182781301</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>197</v>
+      </c>
+      <c r="C113" t="s">
+        <v>131</v>
+      </c>
+      <c r="G113" s="1">
+        <v>-4.6069536759514702E-2</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0.64398311227854699</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>198</v>
+      </c>
+      <c r="C114" t="s">
+        <v>131</v>
+      </c>
+      <c r="G114" s="1">
+        <v>-0.40156162811722002</v>
+      </c>
+      <c r="H114" s="1">
+        <v>-0.50542954595834599</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>199</v>
+      </c>
+      <c r="C115" t="s">
+        <v>131</v>
+      </c>
+      <c r="G115" s="1">
+        <v>-4.6069536759514702E-2</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0.64398311227854699</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>200</v>
+      </c>
+      <c r="C116" t="s">
+        <v>131</v>
+      </c>
+      <c r="G116" s="1">
+        <v>0.106179517928029</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0.70830476908103301</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>201</v>
+      </c>
+      <c r="C117" t="s">
+        <v>131</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0.34292254858412802</v>
+      </c>
+      <c r="H117" s="1">
+        <v>-0.32362460700401702</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0.69899999999999995</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>202</v>
+      </c>
+      <c r="C118" t="s">
+        <v>131</v>
+      </c>
+      <c r="G118" s="1">
+        <v>-4.6069536759514702E-2</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0.64398311227854699</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>203</v>
+      </c>
+      <c r="C119" t="s">
+        <v>131</v>
+      </c>
+      <c r="G119" s="1">
+        <v>-4.6069536759514702E-2</v>
+      </c>
+      <c r="H119" s="1">
+        <v>0.64398311227854699</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>204</v>
+      </c>
+      <c r="C120" t="s">
+        <v>131</v>
+      </c>
+      <c r="G120" s="1">
+        <v>-4.6069536759514702E-2</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0.64398311227854699</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>205</v>
+      </c>
+      <c r="C121" t="s">
+        <v>131</v>
+      </c>
+      <c r="G121" s="1">
+        <v>-4.6069536759514702E-2</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0.64398311227854699</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>206</v>
+      </c>
+      <c r="C122" t="s">
+        <v>136</v>
+      </c>
+      <c r="G122" s="1">
+        <v>-4.6069536759514702E-2</v>
+      </c>
+      <c r="H122" s="1">
+        <v>0.64398311227854699</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>207</v>
+      </c>
+      <c r="C123" t="s">
+        <v>131</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0.14875849751266401</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0.56369587859695403</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0.378</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E123">
+    <sortCondition ref="B2:B123"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>